--- a/biology/Médecine/Articulation_huméro-ulnaire/Articulation_huméro-ulnaire.xlsx
+++ b/biology/Médecine/Articulation_huméro-ulnaire/Articulation_huméro-ulnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-ulnaire</t>
+          <t>Articulation_huméro-ulnaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation huméro-ulnaire (ou articulation huméro-cubitale) est une des articulations constituante de l'articulation du coude. Elle relie l'humérus et l'ulna.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-ulnaire</t>
+          <t>Articulation_huméro-ulnaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation huméro-ulnaire est une jointure synoviale de type ginglyme (ou articulation trochléaire).
-Ses surfaces articulaires sont la trochlée humérale et de l'incisure trochléaire de l'ulna[1].
+Ses surfaces articulaires sont la trochlée humérale et de l'incisure trochléaire de l'ulna.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_hum%C3%A9ro-ulnaire</t>
+          <t>Articulation_huméro-ulnaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation huméro-ulnaire permet les mouvements de flexion extension de l'avant-bras selon l'axe transversal passant par l'extrémité inférieure de l'humérus.
 La flexion est d'environ 140° et est limité par les faisceaux postérieurs des ligaments collatéraux radial et ulnaire et par le bras.
